--- a/stock_historical_data/1wk/NILE.BO.xlsx
+++ b/stock_historical_data/1wk/NILE.BO.xlsx
@@ -66213,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NILE.BO.xlsx
+++ b/stock_historical_data/1wk/NILE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1174"/>
+  <dimension ref="A1:R1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66217,6 +66217,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>1254.300048828125</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>1223.099975585938</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>1367.300048828125</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>1367.300048828125</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>61198</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>1394.449951171875</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>1399.800048828125</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>1316.050048828125</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>1324.099975585938</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>1324.099975585938</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>13886</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/NILE.BO.xlsx
+++ b/stock_historical_data/1wk/NILE.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -66093,7 +66093,7 @@
         <v>23</v>
       </c>
       <c r="O1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1172" t="n">
         <v>0</v>
@@ -66269,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66323,7 +66325,477 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>1986.849975585938</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>1791.099975585938</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>1841.650024414062</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>21111</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1878.5</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1575.050048828125</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>1603.25</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>28804</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>1811.699951171875</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1476</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>1754.349975585938</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>22495</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>1568</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>10093</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>1580.050048828125</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>1602.300048828125</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>36648</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>1699.800048828125</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>1605.5</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>10922</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>1781.25</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>1582.849975585938</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>24268</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>1618.900024414062</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>1560.75</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>15962</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>1521</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>1440.5</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>1493.300048828125</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>14906</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NILE.BO.xlsx
+++ b/stock_historical_data/1wk/NILE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1185"/>
+  <dimension ref="A1:R1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -66379,7 +66379,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66431,7 +66433,9 @@
       <c r="Q1178" t="n">
         <v>1</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66483,7 +66487,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66535,7 +66541,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66587,7 +66595,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66639,7 +66649,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66683,7 +66695,7 @@
         <v>7</v>
       </c>
       <c r="O1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1183" t="n">
         <v>0</v>
@@ -66691,7 +66703,9 @@
       <c r="Q1183" t="n">
         <v>2</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66743,7 +66757,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66795,7 +66811,477 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>1531.400024414062</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>1508.25</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>21500</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1490.050048828125</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>1414.949951171875</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>12558</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>1597</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>1528.150024414062</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>31498</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>1528.400024414062</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>1597</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>1473.349975585938</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>32096</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>1450.099975585938</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>1499.75</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>8976</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>1303.5</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>1465</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>1303.5</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>1423.449951171875</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>12813</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>1440.050048828125</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>1469.650024414062</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>6402</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>1414.949951171875</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>1431.449951171875</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>12118</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>1431.449951171875</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>1479.599975585938</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>1397.400024414062</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>7697</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
